--- a/OUTPUT/analitico_baixa.xlsx
+++ b/OUTPUT/analitico_baixa.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,81 +498,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48433680</v>
+        <v>48482345</v>
       </c>
       <c r="B2" t="n">
-        <v>431778</v>
+        <v>466230</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UD MAR ASSAD LASANHEIRA 5,3L C/ TPA 6538</t>
+          <t>MARGARINA DELICIA 500G CREM 77% LIP</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>KELVY SALES BARBOSA</t>
+          <t>TAINA MEDEIROS RIBEIRO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>TRANSFERENCIA</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>466230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48436660</v>
+        <v>48477209</v>
       </c>
       <c r="B3" t="n">
-        <v>433345</v>
+        <v>453348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CACHACA SELETA 1LT</t>
+          <t>DOCE F JUNCO 400GR BRIGADEIRO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F3" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I3" t="n">
         <v>401</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
+          <t>KELVY SALES BARBOSA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -581,86 +581,86 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>453348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48439173</v>
+        <v>48476941</v>
       </c>
       <c r="B4" t="n">
-        <v>474919</v>
+        <v>472833</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GELEIA QUEENSBERRY 320GR PIMENT BIQUINHO</t>
+          <t>CD S DOMING BOM D+ MAS UNIV CD 12M 192F</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>602</v>
+        <v>202</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>REINAN RODRIGUES DA SILVA</t>
+          <t>ALEANDRA TRINDADE SOUSA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>TRANSFERENCIA</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>472833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>48442248</v>
+        <v>48482160</v>
       </c>
       <c r="B5" t="n">
-        <v>470194</v>
+        <v>428614</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHOC PO HARALD 1,010KG 50% MELKEN</t>
+          <t>MARCADOR CD/DVD PILOT 2.0 AZUL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>201</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
         <v>101</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>LUCIANE RIBEIRO DA SILVA</t>
+          <t>BRUNO SILVEIRA LIMA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -669,535 +669,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>48442246</v>
-      </c>
-      <c r="B6" t="n">
-        <v>455023</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ACAFRAO PO BONISSIMO 1KG</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43</v>
-      </c>
-      <c r="F6" t="n">
-        <v>502</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>31</v>
-      </c>
-      <c r="I6" t="n">
-        <v>104</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>LUCIANE RIBEIRO DA SILVA</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>48439361</v>
-      </c>
-      <c r="B7" t="n">
-        <v>431975</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PILHA RAYOVAC AAA AMAR PALIT10307 SM 4UN</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" t="n">
-        <v>402</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18</v>
-      </c>
-      <c r="H7" t="n">
-        <v>47</v>
-      </c>
-      <c r="I7" t="n">
-        <v>205</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PARCIAL</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>431975</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>48432232</v>
-      </c>
-      <c r="B8" t="n">
-        <v>448646</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DES DOVE ROLL-ON 30ML ORIGINAL</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>21</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28</v>
-      </c>
-      <c r="F8" t="n">
-        <v>502</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21</v>
-      </c>
-      <c r="H8" t="n">
-        <v>62</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>KELVY SALES BARBOSA</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>48442190</v>
-      </c>
-      <c r="B9" t="n">
-        <v>462479</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SODA CAUSTICA TROVAO 500GR POTE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>48</v>
-      </c>
-      <c r="F9" t="n">
-        <v>501</v>
-      </c>
-      <c r="G9" t="n">
-        <v>25</v>
-      </c>
-      <c r="H9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I9" t="n">
-        <v>101</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>48442182</v>
-      </c>
-      <c r="B10" t="n">
-        <v>450018</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LIMP VEJA 1LT L PES CLORO 2EM1 20%DESC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>53</v>
-      </c>
-      <c r="F10" t="n">
-        <v>602</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>450018</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>48442180</v>
-      </c>
-      <c r="B11" t="n">
-        <v>444861</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LIMP VEJA 2LT PERF LAVANDA EMB ECON</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>61</v>
-      </c>
-      <c r="F11" t="n">
-        <v>302</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>101</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>444861</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>48442198</v>
-      </c>
-      <c r="B12" t="n">
-        <v>467701</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LIMP DESTAC 750ML MADEIRA LAVANDA E BAUN</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>26</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" t="n">
-        <v>301</v>
-      </c>
-      <c r="G12" t="n">
-        <v>26</v>
-      </c>
-      <c r="H12" t="n">
-        <v>44</v>
-      </c>
-      <c r="I12" t="n">
-        <v>102</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>48434286</v>
-      </c>
-      <c r="B13" t="n">
-        <v>469382</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>AMAC FOFO 500ML CONC VITORIOSO LAR</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>26</v>
-      </c>
-      <c r="E13" t="n">
-        <v>57</v>
-      </c>
-      <c r="F13" t="n">
-        <v>301</v>
-      </c>
-      <c r="G13" t="n">
-        <v>27</v>
-      </c>
-      <c r="H13" t="n">
-        <v>63</v>
-      </c>
-      <c r="I13" t="n">
-        <v>301</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>KELVY SALES BARBOSA</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>TRANSFERENCIA</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>469382</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>48434265</v>
-      </c>
-      <c r="B14" t="n">
-        <v>469382</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AMAC FOFO 500ML CONC VITORIOSO LAR</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>27</v>
-      </c>
-      <c r="E14" t="n">
-        <v>63</v>
-      </c>
-      <c r="F14" t="n">
-        <v>301</v>
-      </c>
-      <c r="G14" t="n">
-        <v>26</v>
-      </c>
-      <c r="H14" t="n">
-        <v>57</v>
-      </c>
-      <c r="I14" t="n">
-        <v>301</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>KELVY SALES BARBOSA</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>TRANSFERENCIA</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>469382</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>48431986</v>
-      </c>
-      <c r="B15" t="n">
-        <v>437622</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SAB DOVE 90GR KARITE E BAUNILHA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>31</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>501</v>
-      </c>
-      <c r="G15" t="n">
-        <v>32</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15</v>
-      </c>
-      <c r="I15" t="n">
-        <v>202</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>KELVY SALES BARBOSA</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>TRANSFERENCIA</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>437622</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>48429912</v>
-      </c>
-      <c r="B16" t="n">
-        <v>231400</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>LAMINA WILKINSON 20X3</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>32</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>601</v>
-      </c>
-      <c r="G16" t="n">
-        <v>32</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" t="n">
-        <v>301</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>KELVY SALES BARBOSA</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>48430426</v>
-      </c>
-      <c r="B17" t="n">
-        <v>441511</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CHICLE MENTOS UP2U POTE ROSA /AZUL</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>32</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19</v>
-      </c>
-      <c r="F17" t="n">
-        <v>701</v>
-      </c>
-      <c r="G17" t="n">
-        <v>32</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>LUIZ CARLOS RODRIGUES DA CONCEICAO</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>PARCIAL</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>441511</v>
+        <v>428614</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,37 +755,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48432172</v>
+        <v>48471098</v>
       </c>
       <c r="B2" t="n">
-        <v>461734</v>
+        <v>473179</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BISC MARIL 280GR AMANTEIGADO CHOC</t>
+          <t>MARSHMALLOW FINI 80GR ALVORADA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>501</v>
+        <v>202</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>JOEDNA FERREIRA DE ALMEIDA RIBEIRO</t>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1327,37 +799,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48432174</v>
+        <v>48471260</v>
       </c>
       <c r="B3" t="n">
-        <v>461734</v>
+        <v>473694</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BISC MARIL 280GR AMANTEIGADO CHOC</t>
+          <t>MAIONESE HELLMANNS SQZ 335GR BACON</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>501</v>
+        <v>202</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="I3" t="n">
         <v>202</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>JOEDNA FERREIRA DE ALMEIDA RIBEIRO</t>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1371,37 +843,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48436713</v>
+        <v>48484994</v>
       </c>
       <c r="B4" t="n">
-        <v>455023</v>
+        <v>461832</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACAFRAO PO BONISSIMO 1KG</t>
+          <t>BOLINHO RENATA 40GR BRIGADEIRO</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>502</v>
+        <v>302</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1415,37 +887,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>48439359</v>
+        <v>48474459</v>
       </c>
       <c r="B5" t="n">
-        <v>421955</v>
+        <v>465069</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PILHA RAYOVAC GRANDE AMAR 10298 SM 2UN</t>
+          <t>SALGADINHO SULLPER TEENS 41GR REQUEIJAO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
+          <t>LUCIANO ALBUQUERQUE RIPARDO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,42 +931,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48439365</v>
+        <v>48478580</v>
       </c>
       <c r="B6" t="n">
-        <v>457160</v>
+        <v>470487</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRENDEDOR ROU MAD GABOARDI 12UN</t>
+          <t>COBERTURA P/SORV MARVI 190GR MORANGO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I6" t="n">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>TAINA MEDEIROS RIBEIRO</t>
+          <t>LUIZ HENRIQUE DE OLIVEIRA TRANQUEIA</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>TRANSFERENCIA</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1503,45 +975,969 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48432426</v>
+        <v>48478578</v>
       </c>
       <c r="B7" t="n">
-        <v>462396</v>
+        <v>470487</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CD FORONI CROSS RACING CARTOG CD ESP 80F</t>
+          <t>COBERTURA P/SORV MARVI 190GR MORANGO</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>401</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>402</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CLEBER VIEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>48486053</v>
+      </c>
+      <c r="B8" t="n">
+        <v>457719</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DOCE PESSEGO METADE G B 450GR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>401</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>102</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48486047</v>
+      </c>
+      <c r="B9" t="n">
+        <v>454069</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ACHOC TODDY REFORCADO 1,02KG SACHET</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>402</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>48</v>
+      </c>
+      <c r="I9" t="n">
+        <v>102</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>48486073</v>
+      </c>
+      <c r="B10" t="n">
+        <v>470031</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FARINHA TRIGO VENTURELLI 5KG</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>501</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>101</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>48479582</v>
+      </c>
+      <c r="B11" t="n">
+        <v>461673</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FARINHA DE TRIGO TRIGOBEL 1KG</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99</v>
+      </c>
+      <c r="F11" t="n">
+        <v>202</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>101</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CLEBER VIEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>48471167</v>
+      </c>
+      <c r="B12" t="n">
+        <v>467599</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MILHO VERDE BONARE 170GR SACHET</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>402</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>101</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48471165</v>
+      </c>
+      <c r="B13" t="n">
+        <v>467599</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MILHO VERDE BONARE 170GR SACHET</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>201</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>101</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>48479580</v>
+      </c>
+      <c r="B14" t="n">
+        <v>461673</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FARINHA DE TRIGO TRIGOBEL 1KG</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>51</v>
+      </c>
+      <c r="F14" t="n">
+        <v>301</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>24</v>
+      </c>
+      <c r="I14" t="n">
+        <v>101</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CLEBER VIEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>48471261</v>
+      </c>
+      <c r="B15" t="n">
+        <v>473678</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SACHET CATCHUP CEPERA 7GR</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>301</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>26</v>
+      </c>
+      <c r="I15" t="n">
+        <v>102</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>YAGO RODRIGUES DA SILVA</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>48484982</v>
+      </c>
+      <c r="B16" t="n">
+        <v>421505</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MAIONESE ARISCO SACHET 196GR</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>402</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>61</v>
+      </c>
+      <c r="I16" t="n">
+        <v>102</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48486043</v>
+      </c>
+      <c r="B17" t="n">
+        <v>450472</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PALMITO RIGOMEL PUPUNHA PICADO 1,8KG</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>302</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28</v>
+      </c>
+      <c r="I17" t="n">
+        <v>102</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>48486077</v>
+      </c>
+      <c r="B18" t="n">
+        <v>472112</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MAIONESE HELLMANNS 2.8KG PROFISSION SACH</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>302</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>73</v>
+      </c>
+      <c r="I18" t="n">
+        <v>101</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>48474382</v>
+      </c>
+      <c r="B19" t="n">
+        <v>433409</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CHICLE ARCOR PLUTONITA ACIDO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>202</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" t="n">
+        <v>104</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>LUCIANO ALBUQUERQUE RIPARDO</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>48478780</v>
+      </c>
+      <c r="B20" t="n">
+        <v>421468</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>REFRESCO QUALIMAX 1KG LIMAO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>84</v>
+      </c>
+      <c r="F20" t="n">
+        <v>201</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>107</v>
+      </c>
+      <c r="I20" t="n">
+        <v>101</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>LUIZ HENRIQUE DE OLIVEIRA TRANQUEIA</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>48471271</v>
+      </c>
+      <c r="B21" t="n">
+        <v>473596</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SABAO PD YPE 160GR NEUTRO GLICER 5X1 120</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18</v>
+      </c>
+      <c r="F21" t="n">
+        <v>201</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18</v>
+      </c>
+      <c r="I21" t="n">
+        <v>102</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>48471185</v>
+      </c>
+      <c r="B22" t="n">
+        <v>447672</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CADEIRA ALTA MOR ACO</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>18</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>402</v>
+      </c>
+      <c r="G22" t="n">
+        <v>18</v>
+      </c>
+      <c r="H22" t="n">
+        <v>25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>101</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>48486071</v>
+      </c>
+      <c r="B23" t="n">
+        <v>469676</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MOCHILA  BELLA JUV CLASSIC CIN  MF924163</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>27</v>
       </c>
-      <c r="E7" t="n">
-        <v>31</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>202</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>54</v>
+      </c>
+      <c r="I23" t="n">
+        <v>201</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>48486045</v>
+      </c>
+      <c r="B24" t="n">
+        <v>452528</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ALCOOL SOL 46 GL 1LT</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>27</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>201</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>101</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48464796</v>
+      </c>
+      <c r="B25" t="n">
+        <v>469544</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CD JANDAIA STIFF UNIV CD COST 96F LIL</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>27</v>
+      </c>
+      <c r="E25" t="n">
+        <v>52</v>
+      </c>
+      <c r="F25" t="n">
+        <v>401</v>
+      </c>
+      <c r="G25" t="n">
+        <v>27</v>
+      </c>
+      <c r="H25" t="n">
+        <v>54</v>
+      </c>
+      <c r="I25" t="n">
+        <v>103</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>48471254</v>
+      </c>
+      <c r="B26" t="n">
+        <v>472642</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MASSA MODELAR ACRILEX SOFT VERMELHO 500G</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>29</v>
+      </c>
+      <c r="E26" t="n">
+        <v>54</v>
+      </c>
+      <c r="F26" t="n">
+        <v>301</v>
+      </c>
+      <c r="G26" t="n">
+        <v>28</v>
+      </c>
+      <c r="H26" t="n">
+        <v>22</v>
+      </c>
+      <c r="I26" t="n">
+        <v>204</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>YAGO RODRIGUES DA SILVA</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>48486035</v>
+      </c>
+      <c r="B27" t="n">
+        <v>438002</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COLA ISOPOR POLAR COMPACTOR 90GR</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>30</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="n">
         <v>302</v>
       </c>
-      <c r="G7" t="n">
-        <v>27</v>
-      </c>
-      <c r="H7" t="n">
-        <v>33</v>
-      </c>
-      <c r="I7" t="n">
-        <v>201</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>HELIEZER ABIB FERREIRA</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
+      <c r="G27" t="n">
+        <v>30</v>
+      </c>
+      <c r="H27" t="n">
+        <v>36</v>
+      </c>
+      <c r="I27" t="n">
+        <v>102</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>48486079</v>
+      </c>
+      <c r="B28" t="n">
+        <v>472522</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ENV REIPEL KRAFT NATURAL 24X34</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>58</v>
+      </c>
+      <c r="F28" t="n">
+        <v>202</v>
+      </c>
+      <c r="G28" t="n">
+        <v>30</v>
+      </c>
+      <c r="H28" t="n">
+        <v>56</v>
+      </c>
+      <c r="I28" t="n">
+        <v>101</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>LUCIANE RIBEIRO DA SILVA</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
